--- a/xlsx/nor_oda_partners_tenyear.xlsx
+++ b/xlsx/nor_oda_partners_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Bistand fordelt på partnergrupper, 2014-2023. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata viser data for Bistand fordelt på partnergrupper, 2015-2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
@@ -414,13 +414,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C2">
-        <v>15.85626239318</v>
+        <v>15.67795775754</v>
       </c>
       <c r="D2">
-        <v>0.0398691073186432</v>
+        <v>0.03720903711781546</v>
       </c>
     </row>
     <row r="3">
@@ -430,13 +430,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C3">
-        <v>15.67795775754</v>
+        <v>15.95405073875</v>
       </c>
       <c r="D3">
-        <v>0.03942077678036955</v>
+        <v>0.03786429809916812</v>
       </c>
     </row>
     <row r="4">
@@ -446,13 +446,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C4">
-        <v>15.95405073875</v>
+        <v>18.29125889158</v>
       </c>
       <c r="D4">
-        <v>0.04011498708194227</v>
+        <v>0.0434112747051542</v>
       </c>
     </row>
     <row r="5">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C5">
-        <v>18.29125889158</v>
+        <v>19.12660865703</v>
       </c>
       <c r="D5">
-        <v>0.04599168111995631</v>
+        <v>0.04539383907416706</v>
       </c>
     </row>
     <row r="6">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B6">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C6">
-        <v>19.12660865703</v>
+        <v>21.49289480227</v>
       </c>
       <c r="D6">
-        <v>0.04809209095308661</v>
+        <v>0.05100982748102847</v>
       </c>
     </row>
     <row r="7">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C7">
-        <v>21.49289480227</v>
+        <v>23.09518432977</v>
       </c>
       <c r="D7">
-        <v>0.05404189891740043</v>
+        <v>0.05481259640184417</v>
       </c>
     </row>
     <row r="8">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C8">
-        <v>23.09518432977</v>
+        <v>23.26816693695</v>
       </c>
       <c r="D8">
-        <v>0.05807070794839326</v>
+        <v>0.05522314198123901</v>
       </c>
     </row>
     <row r="9">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B9">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C9">
-        <v>23.26816693695</v>
+        <v>25.49088970948</v>
       </c>
       <c r="D9">
-        <v>0.05850565673764163</v>
+        <v>0.06049840649111479</v>
       </c>
     </row>
     <row r="10">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C10">
-        <v>25.49088970948</v>
+        <v>31.74643647824</v>
       </c>
       <c r="D10">
-        <v>0.06409448786064996</v>
+        <v>0.07534491108761295</v>
       </c>
     </row>
     <row r="11">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B11">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C11">
-        <v>31.74643647824</v>
+        <v>29.07339448214</v>
       </c>
       <c r="D11">
-        <v>0.07982348245446771</v>
+        <v>0.06900088845478435</v>
       </c>
     </row>
     <row r="12">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B12">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C12">
-        <v>7.02840712225</v>
+        <v>7.13847320579</v>
       </c>
       <c r="D12">
-        <v>0.0176722805720361</v>
+        <v>0.01694198431878213</v>
       </c>
     </row>
     <row r="13">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B13">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C13">
-        <v>7.13847320579</v>
+        <v>6.98275550679</v>
       </c>
       <c r="D13">
-        <v>0.01794903157350076</v>
+        <v>0.01657241414059962</v>
       </c>
     </row>
     <row r="14">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B14">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C14">
-        <v>6.98275550679</v>
+        <v>7.35346611547</v>
       </c>
       <c r="D14">
-        <v>0.01755749380130083</v>
+        <v>0.01745223439599661</v>
       </c>
     </row>
     <row r="15">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B15">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C15">
-        <v>7.35346611547</v>
+        <v>7.49438692976</v>
       </c>
       <c r="D15">
-        <v>0.0184896113883546</v>
+        <v>0.01778668661807047</v>
       </c>
     </row>
     <row r="16">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B16">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C16">
-        <v>7.49438692976</v>
+        <v>8.48078048799</v>
       </c>
       <c r="D16">
-        <v>0.01884394376057715</v>
+        <v>0.02012772842265772</v>
       </c>
     </row>
     <row r="17">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B17">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C17">
-        <v>8.48078048799</v>
+        <v>8.5891619622</v>
       </c>
       <c r="D17">
-        <v>0.02132413926039463</v>
+        <v>0.02038495390821716</v>
       </c>
     </row>
     <row r="18">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B18">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C18">
-        <v>8.9770064762</v>
+        <v>8.753035863559999</v>
       </c>
       <c r="D18">
-        <v>0.02257185367679794</v>
+        <v>0.02077388148237221</v>
       </c>
     </row>
     <row r="19">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="B19">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C19">
-        <v>9.116291113560001</v>
+        <v>9.924348182619999</v>
       </c>
       <c r="D19">
-        <v>0.02292207203324571</v>
+        <v>0.02355379735091047</v>
       </c>
     </row>
     <row r="20">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="B20">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C20">
-        <v>10.2772189859</v>
+        <v>12.45553773864</v>
       </c>
       <c r="D20">
-        <v>0.0258411179460729</v>
+        <v>0.02956115670209124</v>
       </c>
     </row>
     <row r="21">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="B21">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C21">
-        <v>13.17051050944</v>
+        <v>11.27900405393</v>
       </c>
       <c r="D21">
-        <v>0.03311603226041673</v>
+        <v>0.02676884878662435</v>
       </c>
     </row>
     <row r="22">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="B22">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C22">
-        <v>6.19530081288</v>
+        <v>8.540618257509999</v>
       </c>
       <c r="D22">
-        <v>0.01557751170201553</v>
+        <v>0.02026974346196003</v>
       </c>
     </row>
     <row r="23">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="B23">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C23">
-        <v>8.540618257509999</v>
+        <v>11.55291753752</v>
       </c>
       <c r="D23">
-        <v>0.02147459580529434</v>
+        <v>0.02741893709121037</v>
       </c>
     </row>
     <row r="24">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B24">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C24">
-        <v>11.55291753752</v>
+        <v>6.4809715207</v>
       </c>
       <c r="D24">
-        <v>0.02904874413184109</v>
+        <v>0.01538151292423623</v>
       </c>
     </row>
     <row r="25">
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B25">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C25">
-        <v>6.4809715207</v>
+        <v>5.92721695672</v>
       </c>
       <c r="D25">
-        <v>0.01629580431255956</v>
+        <v>0.01406726814542363</v>
       </c>
     </row>
     <row r="26">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="B26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C26">
-        <v>5.92721695672</v>
+        <v>6.2857151777</v>
       </c>
       <c r="D26">
-        <v>0.01490343960566602</v>
+        <v>0.01491810432047968</v>
       </c>
     </row>
     <row r="27">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B27">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C27">
-        <v>6.2857151777</v>
+        <v>5.61581417312</v>
       </c>
       <c r="D27">
-        <v>0.01580485027177242</v>
+        <v>0.01332820519393743</v>
       </c>
     </row>
     <row r="28">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="B28">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C28">
-        <v>5.61581417312</v>
+        <v>5.4447080173</v>
       </c>
       <c r="D28">
-        <v>0.01412044606716273</v>
+        <v>0.01292211306118301</v>
       </c>
     </row>
     <row r="29">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="B29">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C29">
-        <v>5.4447080173</v>
+        <v>11.66463493226</v>
       </c>
       <c r="D29">
-        <v>0.01369021544155185</v>
+        <v>0.02768407983185764</v>
       </c>
     </row>
     <row r="30">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="B30">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C30">
-        <v>11.66163493226</v>
+        <v>11.663993544</v>
       </c>
       <c r="D30">
-        <v>0.02932210397988174</v>
+        <v>0.02768255760300983</v>
       </c>
     </row>
     <row r="31">
@@ -878,13 +878,13 @@
         </is>
       </c>
       <c r="B31">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C31">
-        <v>11.648993544</v>
+        <v>11.47190696414</v>
       </c>
       <c r="D31">
-        <v>0.02929031837664832</v>
+        <v>0.02722667190728472</v>
       </c>
     </row>
     <row r="32">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="B32">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C32">
-        <v>2.42623665774</v>
+        <v>2.70890233981</v>
       </c>
       <c r="D32">
-        <v>0.006100547991023913</v>
+        <v>0.00642913122163834</v>
       </c>
     </row>
     <row r="33">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="B33">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C33">
-        <v>2.70890233981</v>
+        <v>1.98930308179</v>
       </c>
       <c r="D33">
-        <v>0.006811284741860826</v>
+        <v>0.004721281518526246</v>
       </c>
     </row>
     <row r="34">
@@ -926,13 +926,13 @@
         </is>
       </c>
       <c r="B34">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C34">
-        <v>1.98930308179</v>
+        <v>1.35216328142</v>
       </c>
       <c r="D34">
-        <v>0.005001918869058717</v>
+        <v>0.003209135686279487</v>
       </c>
     </row>
     <row r="35">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="B35">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C35">
-        <v>1.35216328142</v>
+        <v>1.40182619741</v>
       </c>
       <c r="D35">
-        <v>0.003399889686642041</v>
+        <v>0.003327002395262176</v>
       </c>
     </row>
     <row r="36">
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="B36">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C36">
-        <v>1.40182619741</v>
+        <v>1.06777068346</v>
       </c>
       <c r="D36">
-        <v>0.003524762502080168</v>
+        <v>0.002534176938643085</v>
       </c>
     </row>
     <row r="37">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B37">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C37">
-        <v>1.06777068346</v>
+        <v>0.96562806824</v>
       </c>
       <c r="D37">
-        <v>0.002684810765295998</v>
+        <v>0.002291758352000071</v>
       </c>
     </row>
     <row r="38">
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="B38">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C38">
-        <v>0.96562806824</v>
+        <v>0.81170143075</v>
       </c>
       <c r="D38">
-        <v>0.002427982593118131</v>
+        <v>0.001926438961786035</v>
       </c>
     </row>
     <row r="39">
@@ -1006,13 +1006,13 @@
         </is>
       </c>
       <c r="B39">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C39">
-        <v>0.81170143075</v>
+        <v>1.54206311143</v>
       </c>
       <c r="D39">
-        <v>0.002040948279664397</v>
+        <v>0.003659831493270718</v>
       </c>
     </row>
     <row r="40">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="B40">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C40">
-        <v>1.54506311143</v>
+        <v>1.21877709</v>
       </c>
       <c r="D40">
-        <v>0.003884918493161074</v>
+        <v>0.002892565644166452</v>
       </c>
     </row>
     <row r="41">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="B41">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C41">
-        <v>1.23377709</v>
+        <v>2.2920927325</v>
       </c>
       <c r="D41">
-        <v>0.00310221854235021</v>
+        <v>0.005439902625075686</v>
       </c>
     </row>
     <row r="42">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="B42">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C42">
-        <v>0.53950359449</v>
+        <v>0.41643502498</v>
       </c>
       <c r="D42">
-        <v>0.001356531960316646</v>
+        <v>0.000988339587417701</v>
       </c>
     </row>
     <row r="43">
@@ -1070,13 +1070,13 @@
         </is>
       </c>
       <c r="B43">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C43">
-        <v>0.41643502498</v>
+        <v>0.30692719377</v>
       </c>
       <c r="D43">
-        <v>0.001047087408777407</v>
+        <v>0.0007284408799967855</v>
       </c>
     </row>
     <row r="44">
@@ -1086,13 +1086,13 @@
         </is>
       </c>
       <c r="B44">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C44">
-        <v>0.30692719377</v>
+        <v>0.63507387851</v>
       </c>
       <c r="D44">
-        <v>0.0007717400812368869</v>
+        <v>0.001507242708743044</v>
       </c>
     </row>
     <row r="45">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="B45">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C45">
-        <v>0.63507387851</v>
+        <v>0.68184260233</v>
       </c>
       <c r="D45">
-        <v>0.001596834612706244</v>
+        <v>0.001618240531768452</v>
       </c>
     </row>
     <row r="46">
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="B46">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C46">
-        <v>0.68184260233</v>
+        <v>0.48347240987</v>
       </c>
       <c r="D46">
-        <v>0.001714430249237686</v>
+        <v>0.001147441721842936</v>
       </c>
     </row>
     <row r="47">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="B47">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C47">
-        <v>0.48347240987</v>
+        <v>1.22903996137</v>
       </c>
       <c r="D47">
-        <v>0.001215646721575495</v>
+        <v>0.002916922870257206</v>
       </c>
     </row>
     <row r="48">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="B48">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C48">
-        <v>0.84119544737</v>
+        <v>1.87022318129</v>
       </c>
       <c r="D48">
-        <v>0.002115108260416632</v>
+        <v>0.004438665089383276</v>
       </c>
     </row>
     <row r="49">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="B49">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C49">
-        <v>1.50696793129</v>
+        <v>0.99006194005</v>
       </c>
       <c r="D49">
-        <v>0.003789131681132915</v>
+        <v>0.002349748101505104</v>
       </c>
     </row>
     <row r="50">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="B50">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C50">
-        <v>0.6371911367700001</v>
+        <v>1.4990799798</v>
       </c>
       <c r="D50">
-        <v>0.001602158263053096</v>
+        <v>0.003557818146571182</v>
       </c>
     </row>
     <row r="51">
@@ -1198,13 +1198,13 @@
         </is>
       </c>
       <c r="B51">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C51">
-        <v>0.784107209</v>
+        <v>1.56944377495</v>
       </c>
       <c r="D51">
-        <v>0.001971565157649565</v>
+        <v>0.003724814965032921</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_partners_tenyear.xlsx
+++ b/xlsx/nor_oda_partners_tenyear.xlsx
@@ -657,10 +657,10 @@
         <v>2020</v>
       </c>
       <c r="C17">
-        <v>8.5891619622</v>
+        <v>8.9770064762</v>
       </c>
       <c r="D17">
-        <v>0.02038495390821716</v>
+        <v>0.02130543865122692</v>
       </c>
     </row>
     <row r="18">
@@ -673,10 +673,10 @@
         <v>2021</v>
       </c>
       <c r="C18">
-        <v>8.753035863559999</v>
+        <v>9.116291113560001</v>
       </c>
       <c r="D18">
-        <v>0.02077388148237221</v>
+        <v>0.02163600767824048</v>
       </c>
     </row>
     <row r="19">
@@ -689,10 +689,10 @@
         <v>2022</v>
       </c>
       <c r="C19">
-        <v>9.924348182619999</v>
+        <v>10.2802189859</v>
       </c>
       <c r="D19">
-        <v>0.02355379735091047</v>
+        <v>0.02439839778504699</v>
       </c>
     </row>
     <row r="20">
@@ -705,10 +705,10 @@
         <v>2023</v>
       </c>
       <c r="C20">
-        <v>12.45553773864</v>
+        <v>13.15451050944</v>
       </c>
       <c r="D20">
-        <v>0.02956115670209124</v>
+        <v>0.03122005285267766</v>
       </c>
     </row>
     <row r="21">
@@ -721,10 +721,10 @@
         <v>2024</v>
       </c>
       <c r="C21">
-        <v>11.27900405393</v>
+        <v>11.77526762493</v>
       </c>
       <c r="D21">
-        <v>0.02676884878662435</v>
+        <v>0.02794664821172345</v>
       </c>
     </row>
     <row r="22">
@@ -1137,10 +1137,10 @@
         <v>2020</v>
       </c>
       <c r="C47">
-        <v>1.22903996137</v>
+        <v>0.84119544737</v>
       </c>
       <c r="D47">
-        <v>0.002916922870257206</v>
+        <v>0.001996438127247445</v>
       </c>
     </row>
     <row r="48">
@@ -1153,10 +1153,10 @@
         <v>2021</v>
       </c>
       <c r="C48">
-        <v>1.87022318129</v>
+        <v>1.50696793129</v>
       </c>
       <c r="D48">
-        <v>0.004438665089383276</v>
+        <v>0.00357653889351501</v>
       </c>
     </row>
     <row r="49">
@@ -1169,10 +1169,10 @@
         <v>2022</v>
       </c>
       <c r="C49">
-        <v>0.99006194005</v>
+        <v>0.6341911367700001</v>
       </c>
       <c r="D49">
-        <v>0.002349748101505104</v>
+        <v>0.001505147667368583</v>
       </c>
     </row>
     <row r="50">
@@ -1185,10 +1185,10 @@
         <v>2023</v>
       </c>
       <c r="C50">
-        <v>1.4990799798</v>
+        <v>0.800107209</v>
       </c>
       <c r="D50">
-        <v>0.003557818146571182</v>
+        <v>0.001898921995984768</v>
       </c>
     </row>
     <row r="51">
@@ -1201,10 +1201,10 @@
         <v>2024</v>
       </c>
       <c r="C51">
-        <v>1.56944377495</v>
+        <v>1.07318020395</v>
       </c>
       <c r="D51">
-        <v>0.003724814965032921</v>
+        <v>0.002547015539933817</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_partners_tenyear.xlsx
+++ b/xlsx/nor_oda_partners_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Bistand fordelt på partnergrupper, 2015-2024. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata inneholder data om norsk bistand fordelt på partnergrupper. 2015-2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
